--- a/Assignment_daily_status.xlsx
+++ b/Assignment_daily_status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>No.</t>
   </si>
@@ -391,6 +391,42 @@
     <t xml:space="preserve">Logic is correct. 
 However, the code can be optimized. Use slicing, importing re would not be required. Only a for loop and print statement would be sufficient. </t>
   </si>
+  <si>
+    <t>Write a program to create a given number of files parallely with some random data of 2048 char string. Your program should take folder location and number of
+   files as input.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import os.path
+import shutil
+path = input('\nEnter the path [e.g, C:/..] to create files : ')
+isExist = os.path.exists(path)
+if isExist:
+    no_of_files = int(input("Enter number of files you want to create: "))
+    total_size = no_of_files * 2048
+    stat = shutil.disk_usage(path)
+    if total_size &gt; stat[2]:
+        print("* No sufficient memory *")
+    else:
+        for i in range(no_of_files):
+            file_name = (path + "file_" + str(i) + ".txt")
+            file = open(file_name, "w")
+            string = "S" * 2048
+            file.write(string)
+            file.close()
+        print("* ", no_of_files, " files are successfully created at location", path)
+else:
+    print("Path not exist. Please enter the valid path to create files.")
+</t>
+  </si>
+  <si>
+    <t>C:\Users\sayali\PycharmProjects\seleniumpy\venv\Scripts\python.exe C:/Users/sayali/PycharmProjects/seleniumpy/Assignment_9.py
+Enter the path [e.g, C:/..] to create files : c:/
+Enter number of files you want to create: 2
+*  2  files are successfully created at location c:/</t>
+  </si>
+  <si>
+    <t>Done..</t>
+  </si>
 </sst>
 </file>
 
@@ -424,14 +460,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,7 +496,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,6 +504,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -462,68 +520,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,25 +541,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -566,8 +578,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -588,49 +624,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,127 +804,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,6 +821,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -786,16 +837,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,44 +868,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,157 +906,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1031,6 +1073,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1047,6 +1092,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1367,25 +1418,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="F6:I6"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="A10:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="3"/>
-    <col min="2" max="2" width="34" style="3" customWidth="1"/>
-    <col min="3" max="3" width="49.0952380952381" style="3" customWidth="1"/>
-    <col min="4" max="4" width="43" style="3" customWidth="1"/>
-    <col min="6" max="6" width="31.4285714285714" style="3" customWidth="1"/>
-    <col min="7" max="7" width="48.7428571428571" style="3" customWidth="1"/>
-    <col min="8" max="8" width="39.5714285714286" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.8571428571429" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.14285714285714" style="3"/>
+    <col min="1" max="1" width="9.14285714285714" style="4"/>
+    <col min="2" max="2" width="34" style="4" customWidth="1"/>
+    <col min="3" max="3" width="49.0952380952381" style="4" customWidth="1"/>
+    <col min="4" max="4" width="43" style="4" customWidth="1"/>
+    <col min="6" max="6" width="31.4285714285714" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.7428571428571" style="4" customWidth="1"/>
+    <col min="8" max="8" width="39.5714285714286" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.8571428571429" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.14285714285714" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:9">
@@ -1418,22 +1469,22 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -1441,31 +1492,31 @@
       </c>
     </row>
     <row r="4" spans="6:6">
-      <c r="F4" s="7"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="6:6">
-      <c r="F5" s="7"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="409.5" spans="1:9">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -1473,28 +1524,46 @@
       </c>
     </row>
     <row r="7" spans="6:7">
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="195" spans="1:9">
       <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="8"/>
       <c r="I8" s="2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="360" spans="1:9">
+      <c r="A10" s="3">
+        <v>4</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="I10" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment_daily_status.xlsx
+++ b/Assignment_daily_status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7980"/>
+    <workbookView windowWidth="20460" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>No.</t>
   </si>
@@ -400,32 +400,90 @@
 import shutil
 path = input('\nEnter the path [e.g, C:/..] to create files : ')
 isExist = os.path.exists(path)
-if isExist:
-    no_of_files = int(input("Enter number of files you want to create: "))
-    total_size = no_of_files * 2048
-    stat = shutil.disk_usage(path)
-    if total_size &gt; stat[2]:
-        print("* No sufficient memory *")
+while True:
+    if isExist:
+        try:
+            no_of_files = int(input("Enter number of files you want to create: "))
+            total_size = no_of_files * 2048
+            stat = shutil.disk_usage(path)
+            if total_size &gt; stat[2]:
+                print("* No sufficient memory *")
+            else:
+                for i in range(no_of_files):
+                    file_name = (path + "file_" + str(i) + ".txt")
+                    file = open(file_name, "w")
+                    string = "S" * 2048
+                    file.write(string)
+                    file.close()
+                print("\n* ", no_of_files, " files are successfully created at location", path)
+                print('* Each file has data size 2048 char string *')
+            break
+        except:
+            print("* ERROR -&gt; Please enter the valid input [E.g, 2]. *\n")
     else:
-        for i in range(no_of_files):
-            file_name = (path + "file_" + str(i) + ".txt")
-            file = open(file_name, "w")
-            string = "S" * 2048
-            file.write(string)
-            file.close()
-        print("* ", no_of_files, " files are successfully created at location", path)
-else:
-    print("Path not exist. Please enter the valid path to create files.")
+        print("* ERROR -&gt; Path not exist. Please enter the valid path to create files. *\n")
+        break
 </t>
   </si>
   <si>
-    <t>C:\Users\sayali\PycharmProjects\seleniumpy\venv\Scripts\python.exe C:/Users/sayali/PycharmProjects/seleniumpy/Assignment_9.py
-Enter the path [e.g, C:/..] to create files : c:/
-Enter number of files you want to create: 2
-*  2  files are successfully created at location c:/</t>
+    <t xml:space="preserve">C:\Users\sayali\PycharmProjects\seleniumpy\venv\Scripts\python.exe C:/Users/sayali/PycharmProjects/seleniumpy/Assignment_9.py
+Enter the path [e.g, C:/..] to create files : c:\
+Enter number of files you want to create: 4
+*  4  files are successfully created at location c:\
+* Each file has data size 2048 char string *
+Process finished with exit code 0
+</t>
   </si>
   <si>
     <t>Done..</t>
+  </si>
+  <si>
+    <t>5. In question 4, take data size as input along with number of files and folder location, take total data size as input. Write logic in program to split data among
+   all the files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import os.path
+import shutil
+path = input('\nEnter the path [e.g, C:\..] to create files : ')
+isExist = os.path.exists(path)
+while True:
+    if isExist:
+        try:
+            no_of_files = int(input("Enter the number of files you want to create: "))
+            total_data_size = int(input("Enter the total size of data which will be divided into {} files : "
+                               .format(no_of_files)))
+            each_file_size = total_data_size/no_of_files
+            stat = shutil.disk_usage(path)
+            if each_file_size &gt; stat[2]:
+                print("* No sufficient memory *")
+            else:
+                for i in range(no_of_files):
+                    file_name = (path + "file_" + str(i) + ".txt")
+                    file = open(file_name, "w")
+                    string = "S" * int(each_file_size)
+                    file.write(string)
+                    file.close()
+                print("\n*", no_of_files, "files are successfully created at location", path)
+                print('* Each file has data size', each_file_size)
+            break
+        except:
+            print("* ERROR -&gt; Enter the valid input *\n")
+    else:
+        print("* ERROR -&gt; Path not exist. Please enter the valid path to create files.")
+        break
+</t>
+  </si>
+  <si>
+    <t>C:\Users\sayali\PycharmProjects\seleniumpy\venv\Scripts\python.exe C:/Users/sayali/PycharmProjects/seleniumpy/Assignment_10.py
+Enter the path [e.g, C:\..] to create files : c:\
+Enter the number of files you want to create: 4
+Enter the total size of data which will be divided into 4 files : 70
+* 4 files are successfully created at location c:\
+* Each file has data size 17.5
+Process finished with exit code 0</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -438,7 +496,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,6 +514,11 @@
       <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="JetBrains Mono"/>
       <charset val="134"/>
     </font>
     <font>
@@ -920,7 +983,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -938,134 +1001,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1098,6 +1161,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1418,12 +1484,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="A10:E10"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1548,7 +1614,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" ht="360" spans="1:9">
+    <row r="10" s="3" customFormat="1" ht="409.5" spans="1:9">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -1564,6 +1630,21 @@
       <c r="E10" s="10"/>
       <c r="I10" s="3" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="409.5" spans="2:9">
+      <c r="B12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="I12" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
